--- a/data/Subset 1/roblem 1 part c.xlsx
+++ b/data/Subset 1/roblem 1 part c.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Student Tag</t>
+          <t>S Tag</t>
         </is>
       </c>
     </row>
@@ -475,7 +475,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -954,7 +954,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting Ss to Relate</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1340,7 +1340,7 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2 - Relating to Another Student</t>
+          <t>2 - Relating to Another S</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting Ss to Relate</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>STUDENTS</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
